--- a/PPT/风险资产计算.xlsx
+++ b/PPT/风险资产计算.xlsx
@@ -5,16 +5,18 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/OneDrive/pdf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/peter/wanli/banking/PPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="19420" windowHeight="13680" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22940" windowHeight="13860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="原表" sheetId="1" r:id="rId1"/>
     <sheet name="转换" sheetId="2" r:id="rId2"/>
     <sheet name="风险加权总资产" sheetId="3" r:id="rId3"/>
+    <sheet name="操作风险资产" sheetId="4" r:id="rId4"/>
+    <sheet name="市场风险资产" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>资产负债表内项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,13 +119,97 @@
   <si>
     <t>银行风险加权总资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品线</t>
+  </si>
+  <si>
+    <t>beta系数</t>
+  </si>
+  <si>
+    <t>公司金融</t>
+  </si>
+  <si>
+    <t>零售银行</t>
+  </si>
+  <si>
+    <t>支付和清算</t>
+  </si>
+  <si>
+    <t>资产管理</t>
+  </si>
+  <si>
+    <t>2014年收入</t>
+  </si>
+  <si>
+    <t>2015年收入</t>
+  </si>
+  <si>
+    <t>2016年收入</t>
+  </si>
+  <si>
+    <t>操作资本要求</t>
+  </si>
+  <si>
+    <t>净多头</t>
+  </si>
+  <si>
+    <t>欧元</t>
+  </si>
+  <si>
+    <t>净空头</t>
+  </si>
+  <si>
+    <t>日元</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>净多头总额</t>
+  </si>
+  <si>
+    <t>净空头总额</t>
+  </si>
+  <si>
+    <t>熊宝宝食品</t>
+  </si>
+  <si>
+    <t>爱丽丝地产</t>
+  </si>
+  <si>
+    <t>搬不动钢铁</t>
+  </si>
+  <si>
+    <t>重口味化工</t>
+  </si>
+  <si>
+    <t>英镑</t>
+  </si>
+  <si>
+    <t>外汇综合头寸</t>
+  </si>
+  <si>
+    <t>外汇净综合头寸</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>风险权数</t>
+  </si>
+  <si>
+    <t>风险资本</t>
+  </si>
+  <si>
+    <t>该银行市场风险资本=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +231,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -160,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -279,18 +372,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -314,14 +416,342 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <strike val="0"/>
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -331,6 +761,152 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="28"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -481,6 +1057,29 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -492,6 +1091,13 @@
         <name val="微软雅黑"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -518,186 +1124,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="28"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -779,13 +1205,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:D3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" tableBorderDxfId="35" totalsRowBorderDxfId="34">
   <autoFilter ref="A1:D3"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="表外项目" dataDxfId="11"/>
-    <tableColumn id="2" name="账面价值" dataDxfId="10"/>
-    <tableColumn id="3" name="转换系数" dataDxfId="9"/>
-    <tableColumn id="4" name="对等信用额" dataDxfId="8">
+    <tableColumn id="1" name="表外项目" dataDxfId="33"/>
+    <tableColumn id="2" name="账面价值" dataDxfId="32"/>
+    <tableColumn id="3" name="转换系数" dataDxfId="31"/>
+    <tableColumn id="4" name="对等信用额" dataDxfId="30">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -794,13 +1220,55 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:D9" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A1:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="项目" dataDxfId="5"/>
-    <tableColumn id="2" name="风险权重" dataDxfId="4"/>
-    <tableColumn id="3" name="金额" dataDxfId="3"/>
-    <tableColumn id="4" name="风险资产额" dataDxfId="2"/>
+    <tableColumn id="1" name="项目" dataDxfId="24"/>
+    <tableColumn id="2" name="风险权重" dataDxfId="23"/>
+    <tableColumn id="3" name="金额" dataDxfId="22"/>
+    <tableColumn id="4" name="风险资产额" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="产品线" dataDxfId="20"/>
+    <tableColumn id="2" name="beta系数" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="D1:G5" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="D1:G5"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="产品线" dataDxfId="16"/>
+    <tableColumn id="2" name="2014年收入" dataDxfId="15"/>
+    <tableColumn id="3" name="2015年收入" dataDxfId="14"/>
+    <tableColumn id="4" name="2016年收入" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="I1:N6" totalsRowCount="1" headerRowDxfId="12">
+  <autoFilter ref="I1:N6"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="产品线" dataDxfId="11" totalsRowDxfId="5"/>
+    <tableColumn id="2" name="2014年收入" dataDxfId="10" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="2015年收入" dataDxfId="9" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="2016年收入" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="5" name="beta系数" dataDxfId="7" totalsRowDxfId="1"/>
+    <tableColumn id="6" name="操作资本要求" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>(Table134[[#This Row],[2014年收入]]+Table134[[#This Row],[2015年收入]]+Table134[[#This Row],[2016年收入]])*Table134[[#This Row],[beta系数]]</calculatedColumnFormula>
+      <totalsRowFormula>N2+N3+N4+N5</totalsRowFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,81 +1575,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>975</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="40" x14ac:dyDescent="0.5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>300</v>
       </c>
     </row>
@@ -1213,45 +1681,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="67" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>150</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <f>B2*C2</f>
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>300</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>0.5</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>B3*C3</f>
         <v>150</v>
       </c>
@@ -1269,7 +1737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
@@ -1282,131 +1750,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>75</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <f>B2*C2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>300</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D8" si="0">B3*C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>75</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>150</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.5</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>75</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>975</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>150</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40" x14ac:dyDescent="0.5">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10">
         <f>SUM(D2:D8)</f>
         <v>1207.5</v>
       </c>
@@ -1418,4 +1886,483 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="21.1640625" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="20">
+        <v>12</v>
+      </c>
+      <c r="F2" s="20">
+        <v>15</v>
+      </c>
+      <c r="G2" s="20">
+        <v>13</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="20">
+        <v>12</v>
+      </c>
+      <c r="K2" s="20">
+        <v>15</v>
+      </c>
+      <c r="L2" s="20">
+        <v>13</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="N2" s="20">
+        <f>(Table134[[#This Row],[2014年收入]]+Table134[[#This Row],[2015年收入]]+Table134[[#This Row],[2016年收入]])*Table134[[#This Row],[beta系数]]</f>
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="20">
+        <v>7</v>
+      </c>
+      <c r="F3" s="20">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20">
+        <v>9</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="20">
+        <v>70</v>
+      </c>
+      <c r="K3" s="20">
+        <v>80</v>
+      </c>
+      <c r="L3" s="20">
+        <v>86</v>
+      </c>
+      <c r="M3" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="N3" s="20">
+        <f>(Table134[[#This Row],[2014年收入]]+Table134[[#This Row],[2015年收入]]+Table134[[#This Row],[2016年收入]])*Table134[[#This Row],[beta系数]]</f>
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20">
+        <v>15</v>
+      </c>
+      <c r="F4" s="20">
+        <v>18</v>
+      </c>
+      <c r="G4" s="20">
+        <v>16</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="20">
+        <v>15</v>
+      </c>
+      <c r="K4" s="20">
+        <v>18</v>
+      </c>
+      <c r="L4" s="20">
+        <v>16</v>
+      </c>
+      <c r="M4" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="N4" s="20">
+        <f>(Table134[[#This Row],[2014年收入]]+Table134[[#This Row],[2015年收入]]+Table134[[#This Row],[2016年收入]])*Table134[[#This Row],[beta系数]]</f>
+        <v>8.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="20">
+        <v>22</v>
+      </c>
+      <c r="F5" s="20">
+        <v>16</v>
+      </c>
+      <c r="G5" s="20">
+        <v>9</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="20">
+        <v>22</v>
+      </c>
+      <c r="K5" s="20">
+        <v>16</v>
+      </c>
+      <c r="L5" s="20">
+        <v>19</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0.12</v>
+      </c>
+      <c r="N5" s="20">
+        <f>(Table134[[#This Row],[2014年收入]]+Table134[[#This Row],[2015年收入]]+Table134[[#This Row],[2016年收入]])*Table134[[#This Row],[beta系数]]</f>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="I6" s="18"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20">
+        <f>N2+N3+N4+N5</f>
+        <v>51.179999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f>Table134[[#Totals],[操作资本要求]]/3</f>
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="26" x14ac:dyDescent="0.3">
+      <c r="E16" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="21">
+        <v>25</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21">
+        <v>30</v>
+      </c>
+      <c r="E2" s="18"/>
+      <c r="F2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="21">
+        <v>60</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="21">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="21">
+        <v>15</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="21">
+        <v>35</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="21">
+        <v>35</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
+        <f>B2+B3</f>
+        <v>40</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="21">
+        <f>D2+D3</f>
+        <v>65</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="21">
+        <f>G2+G3</f>
+        <v>95</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="21">
+        <f>I2+I3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="21">
+        <f>B4+D4</f>
+        <v>105</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="21">
+        <f>B7*C7</f>
+        <v>52.5</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="21">
+        <f>G4+I4</f>
+        <v>175</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="21">
+        <f>G7*H7</f>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="21">
+        <f>B4-D4</f>
+        <v>-25</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="21">
+        <f>B8*C8</f>
+        <v>-12.5</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="21">
+        <f>G4-I4</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="21">
+        <f>G8*H8</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="21">
+        <f>D7+D8+I7+I8</f>
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>